--- a/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
+++ b/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
@@ -20,9 +20,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="126">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區辛亥段三小段05630000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段二小段10670000地號</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02520013地號</t>
+  </si>
+  <si>
+    <t>花蓮縣瑞穗郷瑞良段00020000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣瑞穗郷瑞良段00160000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣瑞穗鄉瑞良段00160000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣瑞穗鄉瑞良段00150000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣瑞穗鄉青蓮段03690000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣瑞穗鄉青蓮段03710000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣玉里鎮德武段02390000地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市富岡南段12810000地號</t>
+  </si>
+  <si>
+    <t>10000分之585</t>
+  </si>
+  <si>
+    <t>16分之1</t>
+  </si>
+  <si>
+    <t>10000分之177</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>9分之4</t>
+  </si>
+  <si>
+    <t>9分之2</t>
+  </si>
+  <si>
+    <t>鄭天財</t>
+  </si>
+  <si>
+    <t>王慧玲</t>
+  </si>
+  <si>
+    <t>91年04月02日</t>
+  </si>
+  <si>
+    <t>98年03月11曰</t>
+  </si>
+  <si>
+    <t>98年03月11n</t>
+  </si>
+  <si>
+    <t>95年04月20R</t>
+  </si>
+  <si>
+    <t>88年04月12日</t>
+  </si>
+  <si>
+    <t>95年05月08H</t>
+  </si>
+  <si>
+    <t>95年09月07H</t>
+  </si>
+  <si>
+    <t>95年05月08闩</t>
+  </si>
+  <si>
+    <t>95年05月08日</t>
+  </si>
+  <si>
+    <t>93年09月13日</t>
+  </si>
+  <si>
+    <t>80年11月13日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貿賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp1c9c1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,145 +199,40 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區辛亥段三小段 0563-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段二小段 1067-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣南投市牛運堀段 0252-0013 地號</t>
-  </si>
-  <si>
-    <t>★花蓮縣瑞穗郷瑞良段 0002-0000 地號</t>
-  </si>
-  <si>
-    <t>★花蓮縣瑞穗郷瑞良段 0016-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣瑞穗鄉瑞良段0016-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣瑞穗鄉瑞良段0015-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣瑞穗鄉青蓮段0369-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣瑞穗鄉青蓮段0371-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣玉里鎮德武段0239-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市富岡南段 1281-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 585</t>
-  </si>
-  <si>
-    <t>16分之1</t>
-  </si>
-  <si>
-    <t>10000分之 177</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>9分之4</t>
-  </si>
-  <si>
-    <t>9分之2</t>
-  </si>
-  <si>
-    <t>鄭天財</t>
-  </si>
-  <si>
-    <t>王慧玲</t>
-  </si>
-  <si>
-    <t>91年04月 02日</t>
-  </si>
-  <si>
-    <t>98年03月 11曰</t>
-  </si>
-  <si>
-    <t>98年03月 11 n</t>
-  </si>
-  <si>
-    <t>95年04月 20 R</t>
-  </si>
-  <si>
-    <t>88年04月 12日</t>
-  </si>
-  <si>
-    <t>95年05月 08 H</t>
-  </si>
-  <si>
-    <t>95年09月 07 H</t>
-  </si>
-  <si>
-    <t>95年05月 08闩</t>
-  </si>
-  <si>
-    <t>95年05月 08日</t>
-  </si>
-  <si>
-    <t>93年09月 13日</t>
-  </si>
-  <si>
-    <t>80年11月 13日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貿賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>臺北市大安區辛亥段F小段</t>
   </si>
   <si>
-    <t>臺北市大安區通化段二小段 00085-000 建號</t>
-  </si>
-  <si>
-    <t>★南投縣南投市牛運堀段 02831 -000 建號</t>
-  </si>
-  <si>
-    <t>★南投縣南投市牛運堀段 02850-000 建號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市富岡南段 00209-000 建號</t>
+    <t>臺北市大安區通化段二小段00085000建號</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02831000建號</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02850000建號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市富岡南段00209000建號</t>
   </si>
   <si>
     <t>2分之1</t>
   </si>
   <si>
-    <t>10000分之 3448</t>
-  </si>
-  <si>
-    <t>100000 分 之 20000</t>
+    <t>10000分之3448</t>
+  </si>
+  <si>
+    <t>100000分之20000</t>
   </si>
   <si>
     <t>88年05月</t>
   </si>
   <si>
-    <t>98年03月 11日</t>
-  </si>
-  <si>
-    <t>95年04月 20日</t>
-  </si>
-  <si>
-    <t>80年11月 13曰</t>
+    <t>98年03月11日</t>
+  </si>
+  <si>
+    <t>95年04月20日</t>
+  </si>
+  <si>
+    <t>80年11月13曰</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -196,7 +247,7 @@
     <t>福特六和(93年出產）</t>
   </si>
   <si>
-    <t>99年04月 01日</t>
+    <t>99年04月01日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -211,16 +262,16 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司南 投中興郵局</t>
-  </si>
-  <si>
-    <t>中華郵释股份有限公司南 投中興郵局</t>
+    <t>中華郵政股份有限公司南投中興郵局</t>
+  </si>
+  <si>
+    <t>中華郵释股份有限公司南投中興郵局</t>
   </si>
   <si>
     <t>臺灣銀行館前分行</t>
   </si>
   <si>
-    <t>臺、讀銀行中興分行</t>
+    <t>臺讀銀行中興分行</t>
   </si>
   <si>
     <t>臺灣銀行中興分行</t>
@@ -229,13 +280,13 @@
     <t>臺灣土地銀行士林分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司台 北保安郵局</t>
-  </si>
-  <si>
-    <t>南投光明里郵局（第8支 局）</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司南 投三興郵局</t>
+    <t>中華郵政股份有限公司台北保安郵局</t>
+  </si>
+  <si>
+    <t>南投光明里郵局（第8支局）</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司南投三興郵局</t>
   </si>
   <si>
     <t>臺灣銀行中興新村分行</t>
@@ -277,31 +328,31 @@
     <t>安泰人壽</t>
   </si>
   <si>
-    <t>新長安終身壽險（100,000 元）</t>
-  </si>
-  <si>
-    <t>百年長青終身壽險 (1,000,000 元）</t>
-  </si>
-  <si>
-    <t>新長榮還本終身壽險 (600,000 元）</t>
+    <t>新長安終身壽險（100000元）</t>
+  </si>
+  <si>
+    <t>百年長青終身壽險(1000000元）</t>
+  </si>
+  <si>
+    <t>新長榮還本終身壽險(600000元）</t>
   </si>
   <si>
     <t>雙星報喜還本終身壽險</t>
   </si>
   <si>
-    <t>保險期間：自89年3月至109 年3月保費繳付方式：年繳 21,243元，繳費期20年</t>
-  </si>
-  <si>
-    <t>保險期間：自82年9月至身 故繳費期間：6年（繳費期已 期滿）</t>
-  </si>
-  <si>
-    <t>保險期間：自80年4月20曰 至90年4月20日繳費期間： 10年（繳費期已期滿）</t>
-  </si>
-  <si>
-    <t>被保險人：鄭〇安保險期 間：自89年12月18曰至182 年12月18日繳費期間：20 年保費繳納方式及金額：半 年繳保費9,900元。每二年 還本15,000元。</t>
-  </si>
-  <si>
-    <t>被保險人：鄭〇宇保險期 間：自89年12月18日至187 年12月18曰繳費期間：20 年保費繳納方式及金額：半 年繳保費9,950元。每二年 還本15,000元。</t>
+    <t>保險期間：自89年3月至109年3月保費繳付方式：年繳21243元繳費期20年</t>
+  </si>
+  <si>
+    <t>保險期間：自82年9月至身故繳費期間：6年（繳費期已期滿）</t>
+  </si>
+  <si>
+    <t>保險期間：自80年4月20曰至90年4月20日繳費期間：10年（繳費期已期滿）</t>
+  </si>
+  <si>
+    <t>被保險人：鄭〇安保險期間：自89年12月18曰至182年12月18日繳費期間：20年保費繳納方式及金額：半年繳保費9900元。每二年還本15000元。</t>
+  </si>
+  <si>
+    <t>被保險人：鄭〇宇保險期間：自89年12月18日至187年12月18曰繳費期間：20年保費繳納方式及金額：半年繳保費9950元。每二年還本15000元。</t>
   </si>
   <si>
     <t>債權人</t>
@@ -319,16 +370,16 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>-般借款</t>
-  </si>
-  <si>
-    <t>陳俊民 南投縣南投市中興路</t>
-  </si>
-  <si>
-    <t>95年02月 25日</t>
-  </si>
-  <si>
-    <t>南投地方法 院支付命令</t>
+    <t>般借款</t>
+  </si>
+  <si>
+    <t>陳俊民南投縣南投市中興路</t>
+  </si>
+  <si>
+    <t>95年02月25日</t>
+  </si>
+  <si>
+    <t>南投地方法院支付命令</t>
   </si>
   <si>
     <t>債務人</t>
@@ -340,10 +391,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>台灣土地銀行士林分行 臺北市土林區中山北路</t>
-  </si>
-  <si>
-    <t>95年06月 26日</t>
+    <t>台灣土地銀行士林分行臺北市土林區中山北路</t>
+  </si>
+  <si>
+    <t>95年06月26日</t>
   </si>
   <si>
     <t>購置房屋</t>
@@ -705,13 +756,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,317 +784,590 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>418</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2">
         <v>4670523</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2">
         <v>2207813</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>225</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2">
         <v>2207813</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>1167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2">
         <v>285051</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>1633</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <v>555220</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>2021</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2">
         <v>826364</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>2021</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2">
         <v>413182</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>4834</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2">
         <v>730471</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>2706.27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2">
         <v>568317</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>3312.42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2">
         <v>695608</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>1062.22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H12" s="2">
         <v>646892</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>699.76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="2">
         <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1061,25 +1385,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1087,22 +1411,22 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2">
         <v>175000</v>
@@ -1113,22 +1437,22 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2">
         <v>74.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2">
         <v>69150</v>
@@ -1139,22 +1463,22 @@
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
         <v>74.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2">
         <v>69150</v>
@@ -1165,22 +1489,22 @@
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2">
         <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2">
         <v>289000</v>
@@ -1191,22 +1515,22 @@
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2">
         <v>14.21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <v>1186</v>
@@ -1217,22 +1541,22 @@
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <v>139.8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2">
         <v>18760</v>
@@ -1253,22 +1577,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1276,22 +1600,22 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2">
         <v>1999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1309,19 +1633,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1329,16 +1653,16 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>1234468</v>
@@ -1349,16 +1673,16 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>233776</v>
@@ -1369,16 +1693,16 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>388</v>
@@ -1389,16 +1713,16 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>6144</v>
@@ -1409,16 +1733,16 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>625735</v>
@@ -1429,16 +1753,16 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>192425</v>
@@ -1449,16 +1773,16 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>4139</v>
@@ -1469,16 +1793,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>731783</v>
@@ -1489,16 +1813,16 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
         <v>112643</v>
@@ -1509,16 +1833,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
         <v>675851</v>
@@ -1529,16 +1853,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
         <v>381138</v>
@@ -1549,16 +1873,16 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2">
         <v>59766</v>
@@ -1569,16 +1893,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2">
         <v>50000</v>
@@ -1589,16 +1913,16 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2">
         <v>629717</v>
@@ -1609,16 +1933,16 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2">
         <v>1756303</v>
@@ -1639,16 +1963,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1656,16 +1980,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1673,16 +1997,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1690,16 +2014,16 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1707,16 +2031,16 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1724,16 +2048,16 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1751,22 +2075,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1774,22 +2098,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>1389488</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1807,22 +2131,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1830,22 +2154,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2">
         <v>991281</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
+++ b/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區辛亥段三小段05630000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區通化段二小段10670000地號</t>
@@ -97,9 +100,6 @@
     <t>臺東縣台東市富岡南段12810000地號</t>
   </si>
   <si>
-    <t>10000分之585</t>
-  </si>
-  <si>
     <t>16分之1</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>王慧玲</t>
   </si>
   <si>
-    <t>91年04月02日</t>
-  </si>
-  <si>
     <t>98年03月11曰</t>
   </si>
   <si>
@@ -178,30 +175,12 @@
     <t>tmp1c9c1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市大安區辛亥段F小段</t>
   </si>
   <si>
+    <t>88年05月</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段二小段00085000建號</t>
   </si>
   <si>
@@ -223,9 +202,6 @@
     <t>100000分之20000</t>
   </si>
   <si>
-    <t>88年05月</t>
-  </si>
-  <si>
     <t>98年03月11日</t>
   </si>
   <si>
@@ -235,36 +211,21 @@
     <t>80年11月13曰</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>福特六和(93年出產）</t>
   </si>
   <si>
     <t>99年04月01日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>中華郵政股份有限公司南投中興郵局</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>中華郵释股份有限公司南投中興郵局</t>
   </si>
   <si>
@@ -292,45 +253,30 @@
     <t>臺灣銀行中興新村分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>公教優惠儲蓄存款</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>乇慧玲</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>新長安終身壽險（100000元）</t>
+  </si>
+  <si>
+    <t>保險期間：自89年3月至109年3月保費繳付方式：年繳21243元繳費期20年</t>
+  </si>
+  <si>
     <t>台灣人壽</t>
   </si>
   <si>
     <t>安泰人壽</t>
   </si>
   <si>
-    <t>新長安終身壽險（100000元）</t>
-  </si>
-  <si>
     <t>百年長青終身壽險(1000000元）</t>
   </si>
   <si>
@@ -340,9 +286,6 @@
     <t>雙星報喜還本終身壽險</t>
   </si>
   <si>
-    <t>保險期間：自89年3月至109年3月保費繳付方式：年繳21243元繳費期20年</t>
-  </si>
-  <si>
     <t>保險期間：自82年9月至身故繳費期間：6年（繳費期已期滿）</t>
   </si>
   <si>
@@ -355,21 +298,6 @@
     <t>被保險人：鄭〇宇保險期間：自89年12月18日至187年12月18曰繳費期間：20年保費繳納方式及金額：半年繳保費9950元。每二年還本15000元。</t>
   </si>
   <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>般借款</t>
   </si>
   <si>
@@ -380,12 +308,6 @@
   </si>
   <si>
     <t>南投地方法院支付命令</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -756,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,19 +727,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>418</v>
+        <v>225</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -826,19 +754,19 @@
         <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2">
-        <v>4670523</v>
+        <v>2207813</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>31</v>
@@ -847,18 +775,24 @@
         <v>1763</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>225</v>
@@ -867,25 +801,25 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2">
         <v>2207813</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -894,45 +828,51 @@
         <v>1763</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>225</v>
+        <v>1167</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2">
-        <v>2207813</v>
+        <v>285051</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -941,24 +881,30 @@
         <v>1763</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0177</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>20.6559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>1167</v>
+        <v>1633</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -967,19 +913,19 @@
         <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2">
-        <v>285051</v>
+        <v>555220</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -988,24 +934,30 @@
         <v>1763</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>1633</v>
+        <v>2021</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -1014,19 +966,19 @@
         <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2">
-        <v>555220</v>
+        <v>826364</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -1035,24 +987,30 @@
         <v>1763</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>898.222222222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>2021</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -1061,19 +1019,19 @@
         <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2">
-        <v>826364</v>
+        <v>413182</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
@@ -1082,24 +1040,30 @@
         <v>1763</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>449.111111111111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>2021</v>
+        <v>4834</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -1108,19 +1072,19 @@
         <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2">
-        <v>413182</v>
+        <v>730471</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
@@ -1129,24 +1093,30 @@
         <v>1763</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2148.44444444444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>4834</v>
+        <v>2706.27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
@@ -1155,19 +1125,19 @@
         <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2">
-        <v>730471</v>
+        <v>568317</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>31</v>
@@ -1176,21 +1146,27 @@
         <v>1763</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2706.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>2706.27</v>
+        <v>3312.42</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
@@ -1199,22 +1175,22 @@
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="2">
-        <v>568317</v>
+        <v>695608</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>31</v>
@@ -1223,21 +1199,27 @@
         <v>1763</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3312.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>3312.42</v>
+        <v>1062.22</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
@@ -1249,19 +1231,19 @@
         <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2">
-        <v>695608</v>
+        <v>646892</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>31</v>
@@ -1270,45 +1252,51 @@
         <v>1763</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1062.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>1062.22</v>
+        <v>699.76</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2">
-        <v>646892</v>
+        <v>45</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>31</v>
@@ -1317,57 +1305,16 @@
         <v>1763</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
         <v>699.76</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1763</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1385,74 +1332,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="H1" s="1">
+        <v>175000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
-        <v>94</v>
+        <v>74.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2">
-        <v>175000</v>
+        <v>69150</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>74.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2">
         <v>69150</v>
@@ -1460,105 +1407,79 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2">
-        <v>74.3</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2">
-        <v>69150</v>
+        <v>289000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="2">
-        <v>109</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2">
-        <v>289000</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2">
+        <v>139.8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="2">
-        <v>14.21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2">
-        <v>139.8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2">
         <v>18760</v>
       </c>
     </row>
@@ -1569,53 +1490,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1999</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
         <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1999</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1633,318 +1531,298 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1234468</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>1234468</v>
+        <v>233776</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2">
-        <v>233776</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="2">
-        <v>388</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>6144</v>
+        <v>625735</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2">
-        <v>625735</v>
+        <v>192425</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2">
-        <v>192425</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
-        <v>4139</v>
+        <v>731783</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>731783</v>
+        <v>112643</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>112643</v>
+        <v>675851</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="2">
-        <v>675851</v>
+        <v>381138</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2">
-        <v>381138</v>
+        <v>59766</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2">
-        <v>59766</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2">
-        <v>50000</v>
+        <v>629717</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2">
-        <v>629717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2">
         <v>1756303</v>
       </c>
     </row>
@@ -1955,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1963,101 +1841,84 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>111</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2067,53 +1928,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1389488</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>116</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1389488</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2123,53 +1961,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
+      </c>
+      <c r="E1" s="1">
+        <v>991281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="2">
-        <v>991281</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
+++ b/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區辛亥段三小段05630000地號</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段二小段10670000地號</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>臺東縣台東市富岡南段12810000地號</t>
   </si>
   <si>
+    <t>10000分之585</t>
+  </si>
+  <si>
     <t>16分之1</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>王慧玲</t>
   </si>
   <si>
+    <t>91年04月02日</t>
+  </si>
+  <si>
     <t>98年03月11曰</t>
   </si>
   <si>
@@ -178,28 +187,28 @@
     <t>臺北市大安區辛亥段F小段</t>
   </si>
   <si>
+    <t>臺北市大安區通化段二小段00085000建號</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02831000建號</t>
+  </si>
+  <si>
+    <t>南投縣南投市牛運堀段02850000建號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市富岡南段00209000建號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>10000分之3448</t>
+  </si>
+  <si>
+    <t>100000分之20000</t>
+  </si>
+  <si>
     <t>88年05月</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段二小段00085000建號</t>
-  </si>
-  <si>
-    <t>南投縣南投市牛運堀段02831000建號</t>
-  </si>
-  <si>
-    <t>南投縣南投市牛運堀段02850000建號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市富岡南段00209000建號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>10000分之3448</t>
-  </si>
-  <si>
-    <t>100000分之20000</t>
   </si>
   <si>
     <t>98年03月11日</t>
@@ -678,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,102 +745,102 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>225</v>
+        <v>418</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
-        <v>2207813</v>
+        <v>4670523</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2">
         <v>1763</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0625</v>
+        <v>0.0585</v>
       </c>
       <c r="Q2" s="2">
-        <v>14.0625</v>
+        <v>24.453</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>2207813</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2">
         <v>1763</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.0625</v>
@@ -842,166 +851,166 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>1167</v>
+        <v>225</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
-        <v>285051</v>
+        <v>2207813</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2">
         <v>1763</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0177</v>
+        <v>0.0625</v>
       </c>
       <c r="Q4" s="2">
-        <v>20.6559</v>
+        <v>14.0625</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>1633</v>
+        <v>1167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
-        <v>555220</v>
+        <v>285051</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2">
         <v>1763</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.0177</v>
       </c>
       <c r="Q5" s="2">
-        <v>1633</v>
+        <v>20.6559</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>2021</v>
+        <v>1633</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2">
-        <v>826364</v>
+        <v>555220</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2">
         <v>1763</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.444444444444444</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>898.222222222222</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -1010,310 +1019,363 @@
         <v>2021</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2">
-        <v>413182</v>
+        <v>826364</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" s="2">
         <v>1763</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.222222222222222</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Q7" s="2">
-        <v>449.111111111111</v>
+        <v>898.222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>4834</v>
+        <v>2021</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2">
-        <v>730471</v>
+        <v>413182</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M8" s="2">
         <v>1763</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.444444444444444</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="Q8" s="2">
-        <v>2148.44444444444</v>
+        <v>449.111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>2706.27</v>
+        <v>4834</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2">
-        <v>568317</v>
+        <v>730471</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M9" s="2">
         <v>1763</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Q9" s="2">
-        <v>2706.27</v>
+        <v>2148.44444444444</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>3312.42</v>
+        <v>2706.27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
-        <v>695608</v>
+        <v>568317</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M10" s="2">
         <v>1763</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>3312.42</v>
+        <v>2706.27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>1062.22</v>
+        <v>3312.42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2">
-        <v>646892</v>
+        <v>695608</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M11" s="2">
         <v>1763</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1062.22</v>
+        <v>3312.42</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>699.76</v>
+        <v>1062.22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="H12" s="2">
+        <v>646892</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M12" s="2">
         <v>1763</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
+        <v>1062.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>699.76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>699.76</v>
       </c>
     </row>
@@ -1324,163 +1386,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2">
+        <v>175000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1">
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="2">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2">
-        <v>74.3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="2">
-        <v>69150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>74.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>69150</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="2">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>37.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2">
+        <v>69150</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="2">
+        <v>33</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>37.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2">
         <v>109</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2">
+        <v>289000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="2">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14.21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1186</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="2">
+        <v>35</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.3448</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>4.899608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2">
+        <v>139.8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2">
-        <v>289000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2">
-        <v>14.21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2">
+        <v>18760</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1763</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="2">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2">
-        <v>139.8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2">
-        <v>18760</v>
+      <c r="P7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>27.96</v>
       </c>
     </row>
   </sheetData>
@@ -1490,30 +1767,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1">
         <v>1999</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1999</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1531,16 +1831,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1">
         <v>1234468</v>
@@ -1548,281 +1848,301 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2">
-        <v>233776</v>
+        <v>1234468</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
-        <v>388</v>
+        <v>233776</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
-        <v>6144</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
-        <v>625735</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
-        <v>192425</v>
+        <v>625735</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2">
-        <v>4139</v>
+        <v>192425</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
-        <v>731783</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2">
-        <v>112643</v>
+        <v>731783</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
-        <v>675851</v>
+        <v>112643</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2">
-        <v>381138</v>
+        <v>675851</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2">
-        <v>59766</v>
+        <v>381138</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2">
-        <v>50000</v>
+        <v>59766</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2">
-        <v>629717</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2">
+        <v>629717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>75</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2">
         <v>1756303</v>
       </c>
     </row>
@@ -1833,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1841,84 +2161,101 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>111</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>91</v>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1928,30 +2265,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1">
         <v>1389488</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1389488</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1961,30 +2321,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1">
         <v>991281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>991281</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
+++ b/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>80年11月13曰</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>福特六和(93年出產）</t>
@@ -1767,38 +1770,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1">
-        <v>1999</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>1999</v>
@@ -1807,13 +1831,34 @@
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1763</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1831,13 +1876,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
@@ -1851,13 +1896,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1871,13 +1916,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -1891,13 +1936,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -1911,13 +1956,13 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1931,13 +1976,13 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
@@ -1951,13 +1996,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
@@ -1971,13 +2016,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -1991,13 +2036,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2011,13 +2056,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>34</v>
@@ -2031,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -2051,13 +2096,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2071,13 +2116,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
@@ -2091,13 +2136,13 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
@@ -2111,16 +2156,16 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2">
         <v>629717</v>
@@ -2131,13 +2176,13 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
@@ -2161,16 +2206,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2178,16 +2223,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2195,16 +2240,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2212,16 +2257,16 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2229,16 +2274,16 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2246,16 +2291,16 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2273,22 +2318,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1">
         <v>1389488</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2296,22 +2341,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>1389488</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2329,22 +2374,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1">
         <v>991281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2352,22 +2397,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>991281</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
+++ b/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -220,6 +220,9 @@
     <t>80年11月13曰</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
   </si>
   <si>
     <t>99年04月01日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵政股份有限公司南投中興郵局</t>
@@ -1471,7 +1477,7 @@
         <v>175000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>51</v>
@@ -1524,7 +1530,7 @@
         <v>69150</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>51</v>
@@ -1577,7 +1583,7 @@
         <v>69150</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>51</v>
@@ -1630,7 +1636,7 @@
         <v>289000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>51</v>
@@ -1683,7 +1689,7 @@
         <v>1186</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>51</v>
@@ -1736,7 +1742,7 @@
         <v>18760</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>51</v>
@@ -1781,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1822,7 +1828,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
         <v>1999</v>
@@ -1831,7 +1837,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
@@ -1840,7 +1846,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>51</v>
@@ -1876,13 +1882,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
@@ -1896,13 +1902,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1916,13 +1922,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -1936,13 +1942,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -1956,13 +1962,13 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1976,13 +1982,13 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
@@ -1996,13 +2002,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
@@ -2016,13 +2022,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -2036,13 +2042,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2056,13 +2062,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>34</v>
@@ -2076,13 +2082,13 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -2096,13 +2102,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2116,13 +2122,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
@@ -2136,13 +2142,13 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
@@ -2156,16 +2162,16 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2">
         <v>629717</v>
@@ -2176,13 +2182,13 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
@@ -2206,16 +2212,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2223,16 +2229,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2240,16 +2246,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2257,16 +2263,16 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2274,16 +2280,16 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2291,16 +2297,16 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2318,22 +2324,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1">
         <v>1389488</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2341,22 +2347,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>1389488</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2374,22 +2380,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>991281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2397,22 +2403,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>991281</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
+++ b/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -235,49 +235,61 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司南投中興郵局</t>
   </si>
   <si>
+    <t>中華郵释股份有限公司南投中興郵局</t>
+  </si>
+  <si>
+    <t>臺灣銀行館前分行</t>
+  </si>
+  <si>
+    <t>臺讀銀行中興分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行中興分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行士林分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北保安郵局</t>
+  </si>
+  <si>
+    <t>南投光明里郵局（第8支局）</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司南投三興郵局</t>
+  </si>
+  <si>
+    <t>臺灣銀行中興新村分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵释股份有限公司南投中興郵局</t>
-  </si>
-  <si>
-    <t>臺灣銀行館前分行</t>
-  </si>
-  <si>
-    <t>臺讀銀行中興分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行中興分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行士林分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北保安郵局</t>
-  </si>
-  <si>
-    <t>南投光明里郵局（第8支局）</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司南投三興郵局</t>
-  </si>
-  <si>
-    <t>臺灣銀行中興新村分行</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>乇慧玲</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>新光人壽</t>
@@ -1874,13 +1886,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1891,24 +1903,45 @@
         <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1234468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1916,19 +1949,40 @@
       <c r="F2" s="2">
         <v>1234468</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -1936,19 +1990,40 @@
       <c r="F3" s="2">
         <v>233776</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -1956,19 +2031,40 @@
       <c r="F4" s="2">
         <v>388</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1976,19 +2072,40 @@
       <c r="F5" s="2">
         <v>6144</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
@@ -1996,19 +2113,40 @@
       <c r="F6" s="2">
         <v>625735</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
@@ -2016,19 +2154,40 @@
       <c r="F7" s="2">
         <v>192425</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -2036,19 +2195,40 @@
       <c r="F8" s="2">
         <v>4139</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2056,19 +2236,40 @@
       <c r="F9" s="2">
         <v>731783</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>34</v>
@@ -2076,19 +2277,40 @@
       <c r="F10" s="2">
         <v>112643</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -2096,19 +2318,40 @@
       <c r="F11" s="2">
         <v>675851</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2116,19 +2359,40 @@
       <c r="F12" s="2">
         <v>381138</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
@@ -2136,19 +2400,40 @@
       <c r="F13" s="2">
         <v>59766</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
@@ -2156,45 +2441,108 @@
       <c r="F14" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F15" s="2">
         <v>629717</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="2">
         <v>1756303</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1763</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2212,16 +2560,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2229,16 +2577,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2246,16 +2594,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2263,16 +2611,16 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2280,16 +2628,16 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2297,16 +2645,16 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2324,22 +2672,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>1389488</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2347,22 +2695,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>1389488</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2380,22 +2728,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1">
         <v>991281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2403,22 +2751,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>991281</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
+++ b/legislator/property/output/normal/鄭天財_2012-04-30_財產申報表_tmp1c9c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -292,21 +292,21 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>台灣人壽</t>
+  </si>
+  <si>
+    <t>安泰人壽</t>
+  </si>
+  <si>
     <t>新長安終身壽險（100000元）</t>
   </si>
   <si>
-    <t>保險期間：自89年3月至109年3月保費繳付方式：年繳21243元繳費期20年</t>
-  </si>
-  <si>
-    <t>台灣人壽</t>
-  </si>
-  <si>
-    <t>安泰人壽</t>
-  </si>
-  <si>
     <t>百年長青終身壽險(1000000元）</t>
   </si>
   <si>
@@ -316,16 +316,13 @@
     <t>雙星報喜還本終身壽險</t>
   </si>
   <si>
-    <t>保險期間：自82年9月至身故繳費期間：6年（繳費期已期滿）</t>
-  </si>
-  <si>
-    <t>保險期間：自80年4月20曰至90年4月20日繳費期間：10年（繳費期已期滿）</t>
-  </si>
-  <si>
-    <t>被保險人：鄭〇安保險期間：自89年12月18曰至182年12月18日繳費期間：20年保費繳納方式及金額：半年繳保費9900元。每二年還本15000元。</t>
-  </si>
-  <si>
-    <t>被保險人：鄭〇宇保險期間：自89年12月18日至187年12月18曰繳費期間：20年保費繳納方式及金額：半年繳保費9950元。每二年還本15000元。</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>般借款</t>
@@ -340,6 +337,9 @@
     <t>南投地方法院支付命令</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>購置房屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2552,49 +2555,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1763</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>95</v>
@@ -2605,13 +2644,31 @@
       <c r="E3" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1763</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>96</v>
@@ -2620,15 +2677,33 @@
         <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1763</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>97</v>
@@ -2637,15 +2712,33 @@
         <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1763</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>97</v>
@@ -2654,7 +2747,25 @@
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1763</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2664,53 +2775,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1389488</v>
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>1389488</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1763</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2720,33 +2873,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1">
-        <v>991281</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>121</v>
       </c>
@@ -2767,6 +2941,27 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1763</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
